--- a/sidi ntern.xlsx
+++ b/sidi ntern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trainee\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E47AFA8-E753-4CD6-BA26-1226D62519D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27543BDF-4337-40D3-A135-F15D1862C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{885FCA22-714F-4A61-B000-5307900BFF76}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -515,6 +515,9 @@
       <c r="B6" s="3">
         <v>44757</v>
       </c>
+      <c r="C6" s="3">
+        <v>44757</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
@@ -523,12 +526,18 @@
       <c r="B7" s="3">
         <v>44757</v>
       </c>
+      <c r="C7" s="3">
+        <v>44757</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
+        <v>44757</v>
+      </c>
+      <c r="C8" s="3">
         <v>44757</v>
       </c>
     </row>

--- a/sidi ntern.xlsx
+++ b/sidi ntern.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trainee\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27543BDF-4337-40D3-A135-F15D1862C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541BDA0-FC72-4E7E-BECC-3A79D372A99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{885FCA22-714F-4A61-B000-5307900BFF76}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{885FCA22-714F-4A61-B000-5307900BFF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,13 +450,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.21875" customWidth="1"/>
-    <col min="2" max="3" width="26.88671875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="3" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -475,7 +475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -486,7 +486,7 @@
         <v>44756</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -508,7 +508,7 @@
         <v>44756</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -548,6 +548,9 @@
       <c r="B9" s="3">
         <v>44759</v>
       </c>
+      <c r="C9" s="3">
+        <v>44761</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
@@ -556,13 +559,19 @@
       <c r="B10" s="3">
         <v>44759</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8">
+      <c r="C10" s="3">
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>44759</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44761</v>
       </c>
     </row>
   </sheetData>
